--- a/export_scripts/data/pod/SplittingPoD/NewNodeIDs.xlsx
+++ b/export_scripts/data/pod/SplittingPoD/NewNodeIDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinnebancroft/Documents/narratives-final-scripts/export_scripts/data/pod/SplittingPoD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537AA3AA-0389-644E-81C5-E5749777166B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C651F2-7294-5349-92A3-6FC9D9486473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17760" yWindow="500" windowWidth="27240" windowHeight="15940" xr2:uid="{84BE45A6-4CD7-DA43-81E8-EC1DC102EC20}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{84BE45A6-4CD7-DA43-81E8-EC1DC102EC20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Old ID</t>
   </si>
@@ -84,6 +84,54 @@
   </si>
   <si>
     <t>Tenny McElwayne</t>
+  </si>
+  <si>
+    <t>Evelina Harp</t>
+  </si>
+  <si>
+    <t>Dot Adare</t>
+  </si>
+  <si>
+    <t>Sister Mary Anita Buckendorf</t>
+  </si>
+  <si>
+    <t>Sister Mary Anita</t>
+  </si>
+  <si>
+    <t>Corwin Peace</t>
+  </si>
+  <si>
+    <t>Toddy Crieder</t>
+  </si>
+  <si>
+    <t>Evelina's Former Teachers</t>
+  </si>
+  <si>
+    <t>Dot's Former Teachers</t>
+  </si>
+  <si>
+    <t>Other Children (in school with Evelina)</t>
+  </si>
+  <si>
+    <t>Other Children</t>
+  </si>
+  <si>
+    <t>Other Teachers (at Evelina's school)</t>
+  </si>
+  <si>
+    <t>Other Teachers</t>
+  </si>
+  <si>
+    <t>Clemence Harp</t>
+  </si>
+  <si>
+    <t>Dot's Mother</t>
+  </si>
+  <si>
+    <t>Sister Mary Anita's Father</t>
+  </si>
+  <si>
+    <t>Sister Mary Anita's Family</t>
   </si>
 </sst>
 </file>
@@ -455,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94AF1FC-E5D6-5648-AED9-770554CB07A6}">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,82 +675,130 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>421</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>422</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>423</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>424</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>425</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>426</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>427</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>428</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>430</v>
       </c>

--- a/export_scripts/data/pod/SplittingPoD/NewNodeIDs.xlsx
+++ b/export_scripts/data/pod/SplittingPoD/NewNodeIDs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinnebancroft/Documents/narratives-final-scripts/export_scripts/data/pod/SplittingPoD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C651F2-7294-5349-92A3-6FC9D9486473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E6EE55-53EC-F148-A050-11640D56F696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{84BE45A6-4CD7-DA43-81E8-EC1DC102EC20}"/>
+    <workbookView xWindow="21480" yWindow="500" windowWidth="10000" windowHeight="17500" xr2:uid="{84BE45A6-4CD7-DA43-81E8-EC1DC102EC20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Old ID</t>
   </si>
@@ -132,19 +132,121 @@
   </si>
   <si>
     <t>Sister Mary Anita's Family</t>
+  </si>
+  <si>
+    <t>Henri Morriseau</t>
+  </si>
+  <si>
+    <t>Lafayette St. Pierre</t>
+  </si>
+  <si>
+    <t>Local Doctor</t>
+  </si>
+  <si>
+    <t>Doctor's Daugther</t>
+  </si>
+  <si>
+    <t>Stan Anderson</t>
+  </si>
+  <si>
+    <t>Stan's Father</t>
+  </si>
+  <si>
+    <t>Stan's Mother</t>
+  </si>
+  <si>
+    <t>Narrator</t>
+  </si>
+  <si>
+    <t>Narrator's Father</t>
+  </si>
+  <si>
+    <t>Narrator's Grandfather</t>
+  </si>
+  <si>
+    <t>Narrator's Grandmother</t>
+  </si>
+  <si>
+    <t>Narrator's Mother</t>
+  </si>
+  <si>
+    <t>Stan's Brother</t>
+  </si>
+  <si>
+    <t>Stan's Sister</t>
+  </si>
+  <si>
+    <t>Shamengwa's Daughter</t>
+  </si>
+  <si>
+    <t>Baptiste Parentheau</t>
+  </si>
+  <si>
+    <t>Baptiste Parentheau's Father</t>
+  </si>
+  <si>
+    <t>Baptiste Parentheau's Uncles</t>
+  </si>
+  <si>
+    <t>Baptiste Parentheau's Wife</t>
+  </si>
+  <si>
+    <t>Edwin Parentheau</t>
+  </si>
+  <si>
+    <t>Edwin Parentheau's Wife</t>
+  </si>
+  <si>
+    <t>Judge (Narrator)</t>
+  </si>
+  <si>
+    <t>Shamengwa's Father</t>
+  </si>
+  <si>
+    <t>Shamengwa's Mother</t>
+  </si>
+  <si>
+    <t>Baby who was lost</t>
+  </si>
+  <si>
+    <t>Shamengwa's Sister</t>
+  </si>
+  <si>
+    <t>Corwin's roommates</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprecht </t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>C.'s Receptionist</t>
+  </si>
+  <si>
+    <t>C.'s Patients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Garamond"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,8 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94AF1FC-E5D6-5648-AED9-770554CB07A6}">
   <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,37 +778,37 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>418</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>419</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>420</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>421</v>
       </c>
@@ -716,7 +819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>422</v>
       </c>
@@ -727,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>423</v>
       </c>
@@ -738,7 +841,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>424</v>
       </c>
@@ -749,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>425</v>
       </c>
@@ -760,7 +863,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>426</v>
       </c>
@@ -771,7 +874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>427</v>
       </c>
@@ -782,7 +885,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>428</v>
       </c>
@@ -793,332 +896,533 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>429</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>7</v>
+      </c>
       <c r="B32">
         <v>430</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>278</v>
+      </c>
       <c r="B33">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>349</v>
+      </c>
       <c r="B34">
         <v>432</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>350</v>
+      </c>
       <c r="B35">
         <v>433</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>434</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>435</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>436</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>437</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>438</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>51</v>
+      </c>
       <c r="B42">
         <v>440</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>80</v>
+      </c>
       <c r="B43">
         <v>441</v>
       </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>81</v>
+      </c>
       <c r="B44">
         <v>442</v>
       </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
       <c r="B45">
         <v>443</v>
       </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>53</v>
+      </c>
       <c r="B46">
         <v>444</v>
       </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>55</v>
+      </c>
       <c r="B47">
         <v>445</v>
       </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>56</v>
+      </c>
       <c r="B48">
         <v>446</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>52</v>
+      </c>
       <c r="B49">
         <v>447</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>28</v>
+      </c>
       <c r="B50">
         <v>448</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>449</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>450</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>451</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>453</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>454</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>455</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>456</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>458</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>459</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>19</v>
+      </c>
       <c r="B62">
         <v>460</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7</v>
+      </c>
       <c r="B63">
         <v>461</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>330</v>
+      </c>
       <c r="B64">
         <v>462</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>333</v>
+      </c>
       <c r="B65">
         <v>463</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>331</v>
+      </c>
       <c r="B66">
         <v>464</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>278</v>
+      </c>
       <c r="B67">
         <v>465</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>332</v>
+      </c>
       <c r="B68">
         <v>466</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4</v>
+      </c>
       <c r="B69">
         <v>467</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>96</v>
+      </c>
       <c r="B70">
         <v>468</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>95</v>
+      </c>
       <c r="B71">
         <v>469</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>101</v>
+      </c>
       <c r="B72">
         <v>470</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>15</v>
+      </c>
       <c r="B73">
         <v>471</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>472</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>473</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>474</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>476</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>477</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>478</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>479</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>334</v>
+      </c>
       <c r="B82">
         <v>480</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4</v>
+      </c>
       <c r="B83">
         <v>481</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>250</v>
+      </c>
       <c r="B84">
         <v>482</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>338</v>
+      </c>
       <c r="B85">
         <v>483</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>6</v>
+      </c>
       <c r="B86">
         <v>484</v>
       </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>281</v>
+      </c>
       <c r="B87">
         <v>485</v>
       </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>225</v>
+      </c>
       <c r="B88">
         <v>486</v>
       </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>487</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>488</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>490</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>492</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>493</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>494</v>
       </c>
@@ -1225,7 +1529,7 @@
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117">
-        <v>515</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
